--- a/npbenchmark-main/travel_thief/competition_results.xlsx
+++ b/npbenchmark-main/travel_thief/competition_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\GECCO\TTP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\travel_thief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE3BF96-A079-44A8-AB07-5A20CEF48342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C1E80B-656C-4D7C-B6B8-B59355055884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24870" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>a280_n279_bounded-strongly-corr_01.ttp</t>
   </si>
@@ -58,47 +58,79 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>HPI(GECCO19)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALLA(GECCO19)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jomar(GECCO19)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commit = 0651a69</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running time: 272 min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Command:  --tsp-each-run-limit=20 --rand-seed=1811 --wsm-packing-tries=12 --wsm-exploration-tries=117 --wsm-knapsack-importance=0.5 --wsm-pool-size=500 --wsm-calculate-freq-packing=0.0244 --wsm-calculate-freq-tour=0.001 --wsm-exploitation-tries=500000 --wsm-flip-freq=0.22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>JonatasChagas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MohamedElYafrani</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>WimVanCroonenburg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>JoH-paper(best of 21)</t>
-  </si>
-  <si>
-    <t>HPI(GECCO19)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALLA(GECCO19)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Score</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jomar(GECCO19)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Commit = 0651a69</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Running time: 272 min</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Command:  --tsp-each-run-limit=20 --rand-seed=1811 --wsm-packing-tries=12 --wsm-exploration-tries=117 --wsm-knapsack-importance=0.5 --wsm-pool-size=500 --wsm-calculate-freq-packing=0.0244 --wsm-calculate-freq-tour=0.001 --wsm-exploitation-tries=500000 --wsm-flip-freq=0.22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) Efficiently solving the thief orienteering problem with a max-min ant colony optimization approach (2) A Non-Dominated Sorting Based Customized Random-Key Genetic Algorithm for the Bi-Objective Traveling Thief Problem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) On the fitness landscapes of interdependency models in the travelling thief problem (2) Cosolver2B: An Efficient Local Search Heuristic for the Travelling Thief Problem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Hybrid Genetic Algorithm for the Traveling Thief Problem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Local Learning Approach for the Bi-objective Traveling Thief Problem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/blankjul/gecco19-thief/tree/master/submissions/HPI </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没找到</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -109,7 +141,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +181,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -506,10 +546,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -580,21 +621,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -622,6 +648,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -640,9 +681,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -920,64 +974,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.58203125" customWidth="1"/>
-    <col min="2" max="5" width="20.58203125" style="2" customWidth="1"/>
-    <col min="6" max="8" width="20.58203125" customWidth="1"/>
-    <col min="9" max="9" width="16.58203125" customWidth="1"/>
-    <col min="10" max="12" width="12.58203125" customWidth="1"/>
+    <col min="1" max="1" width="40.5546875" customWidth="1"/>
+    <col min="2" max="5" width="20.5546875" style="2" customWidth="1"/>
+    <col min="6" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="10" max="12" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29" t="s">
+      <c r="B1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34"/>
+      <c r="B2" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="30" t="s">
+      <c r="H2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="30" t="s">
+      <c r="I2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1002,11 +1056,11 @@
       <c r="H3" s="21">
         <v>18603.119978699899</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="29">
         <v>15718.0977</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1031,11 +1085,11 @@
       <c r="H4" s="9">
         <v>111112.138773999</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="30">
         <v>106622.7188</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1060,11 +1114,11 @@
       <c r="H5" s="13">
         <v>429085.35300489899</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="30">
         <v>413664.8125</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -1089,11 +1143,11 @@
       <c r="H6" s="9">
         <v>254181.75679000001</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="30">
         <v>256264.6562</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1118,11 +1172,11 @@
       <c r="H7" s="9">
         <v>1567933.42080439</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="30">
         <v>1610732.5001000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1147,11 +1201,11 @@
       <c r="H8" s="9">
         <v>6272240.7018258004</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="30">
         <v>6512812</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1176,11 +1230,11 @@
       <c r="H9" s="9">
         <v>1230174.0027604999</v>
       </c>
-      <c r="I9" s="35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -1205,11 +1259,11 @@
       <c r="H10" s="9">
         <v>11872040.1998454</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="30">
         <v>12291256</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -1234,14 +1288,14 @@
       <c r="H11" s="11">
         <v>54764454.3082918</v>
       </c>
-      <c r="I11" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:9" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I11" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:9" ht="14.55" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="38" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
@@ -1249,7 +1303,7 @@
       <c r="F13" s="39"/>
       <c r="G13" s="40"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="38"/>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
@@ -1257,7 +1311,7 @@
       <c r="F14" s="39"/>
       <c r="G14" s="40"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="38"/>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
@@ -1265,9 +1319,9 @@
       <c r="F15" s="39"/>
       <c r="G15" s="40"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="41" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
@@ -1275,7 +1329,7 @@
       <c r="F16" s="42"/>
       <c r="G16" s="43"/>
     </row>
-    <row r="17" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
@@ -1283,7 +1337,7 @@
       <c r="F17" s="42"/>
       <c r="G17" s="43"/>
     </row>
-    <row r="18" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
       <c r="D18" s="42"/>
@@ -1291,21 +1345,59 @@
       <c r="F18" s="42"/>
       <c r="G18" s="43"/>
     </row>
-    <row r="19" spans="2:7" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
+    <row r="19" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+    </row>
+    <row r="20" spans="2:8" ht="32.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" s="46" customFormat="1" ht="203.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1315,6 +1407,10 @@
     <mergeCell ref="B16:G18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G21" r:id="rId1" xr:uid="{6F1E6BEE-83E0-4506-B644-DC6FA48B45D8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>